--- a/data/DMM  Governance/DMM  Governance20200630.xlsx
+++ b/data/DMM  Governance/DMM  Governance20200630.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>51</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37">
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43">
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53">
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65">
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76">
@@ -1798,7 +1798,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77">
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83">
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124">
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="128">
@@ -2860,7 +2860,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136">
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="158">
@@ -3292,6 +3292,24 @@
         </is>
       </c>
       <c r="D159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>DMM  Governance</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2020/12/05</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
         <v>0</v>
       </c>
     </row>
